--- a/Tests/Validation/Wheat/data/FAR WAA W20-01b.xlsx
+++ b/Tests/Validation/Wheat/data/FAR WAA W20-01b.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Observed" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Tests/Validation/Wheat/data/FAR WAA W20-01b.xlsx
+++ b/Tests/Validation/Wheat/data/FAR WAA W20-01b.xlsx
@@ -508,12 +508,12 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.TotalStemPopn</t>
+          <t>Wheat.Leaf.StemPopulation</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.TotalStemPopn.se</t>
+          <t>Wheat.Leaf.StemPopulation.se</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR WAA W20-01b.xlsx
+++ b/Tests/Validation/Wheat/data/FAR WAA W20-01b.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +457,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>NDVI.Value</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -561,7 +562,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>43997</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -596,7 +597,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -631,7 +632,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -666,7 +667,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C5" t="inlineStr">
@@ -705,7 +706,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C6" t="inlineStr">
@@ -744,7 +745,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C7" t="inlineStr">
@@ -799,7 +800,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>43997</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -834,7 +835,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -869,7 +870,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -904,7 +905,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -943,7 +944,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -982,7 +983,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -1037,7 +1038,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>43997</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1072,7 +1073,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1107,7 +1108,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1142,7 +1143,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -1181,7 +1182,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C18" t="inlineStr">
@@ -1220,7 +1221,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C19" t="inlineStr">
@@ -1275,7 +1276,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>43997</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1310,7 +1311,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1345,7 +1346,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1380,7 +1381,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C23" t="inlineStr">
@@ -1419,7 +1420,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -1458,7 +1459,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -1513,7 +1514,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>43997</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1548,7 +1549,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1583,7 +1584,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1618,7 +1619,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C29" t="inlineStr">
@@ -1657,7 +1658,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C30" t="inlineStr">
@@ -1696,7 +1697,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C31" t="inlineStr">
@@ -1751,7 +1752,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>43997</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1786,7 +1787,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1821,7 +1822,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1856,7 +1857,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C35" t="inlineStr">
@@ -1895,7 +1896,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C36" t="inlineStr">
@@ -1934,7 +1935,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C37" t="inlineStr">
@@ -1989,7 +1990,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>43997</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -2024,7 +2025,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -2059,7 +2060,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2094,7 +2095,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C41" t="inlineStr">
@@ -2133,7 +2134,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C42" t="inlineStr">
@@ -2172,7 +2173,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C43" t="inlineStr">
@@ -2227,7 +2228,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>44042</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2262,7 +2263,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2297,7 +2298,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2332,7 +2333,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C47" t="inlineStr">
@@ -2371,7 +2372,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -2410,7 +2411,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -2465,7 +2466,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>44020</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2500,7 +2501,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2535,7 +2536,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2570,7 +2571,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C53" t="inlineStr">
@@ -2609,7 +2610,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C54" t="inlineStr">
@@ -2648,7 +2649,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C55" t="inlineStr">
@@ -2703,7 +2704,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>44042</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2738,7 +2739,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2773,7 +2774,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2808,7 +2809,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C59" t="inlineStr">
@@ -2847,7 +2848,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C60" t="inlineStr">
@@ -2886,7 +2887,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C61" t="inlineStr">
@@ -2941,7 +2942,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>44020</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2976,7 +2977,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -3011,7 +3012,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -3046,7 +3047,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C65" t="inlineStr">
@@ -3085,7 +3086,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C66" t="inlineStr">
@@ -3124,7 +3125,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C67" t="inlineStr">
@@ -3179,7 +3180,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>44042</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3214,7 +3215,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3249,7 +3250,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3284,7 +3285,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C71" t="inlineStr">
@@ -3323,7 +3324,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C72" t="inlineStr">
@@ -3362,7 +3363,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C73" t="inlineStr">
@@ -3417,7 +3418,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>44042</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3452,7 +3453,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3487,7 +3488,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3522,7 +3523,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C77" t="inlineStr">
@@ -3561,7 +3562,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C78" t="inlineStr">
@@ -3600,7 +3601,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C79" t="inlineStr">
@@ -3655,7 +3656,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>44020</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3690,7 +3691,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3725,7 +3726,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3760,7 +3761,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C83" t="inlineStr">
@@ -3799,7 +3800,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C84" t="inlineStr">
@@ -3838,7 +3839,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C85" t="inlineStr">
@@ -3893,7 +3894,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3928,7 +3929,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3963,7 +3964,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C88" t="inlineStr">
@@ -4002,7 +4003,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C89" t="inlineStr">
@@ -4041,7 +4042,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C90" t="inlineStr">
@@ -4096,7 +4097,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -4131,7 +4132,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -4166,7 +4167,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C93" t="inlineStr">
@@ -4205,7 +4206,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C94" t="inlineStr">
@@ -4244,7 +4245,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C95" t="inlineStr">
@@ -4299,7 +4300,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4334,7 +4335,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4369,7 +4370,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C98" t="inlineStr">
@@ -4408,7 +4409,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C99" t="inlineStr">
@@ -4447,7 +4448,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C100" t="inlineStr">
@@ -4502,7 +4503,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvCutlass</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4537,7 +4538,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvCutlass</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4572,7 +4573,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvCutlass</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C103" t="inlineStr">
@@ -4611,7 +4612,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvCutlass</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C104" t="inlineStr">
@@ -4650,7 +4651,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvCutlass</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C105" t="inlineStr">
@@ -4705,7 +4706,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4740,7 +4741,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4775,7 +4776,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C108" t="inlineStr">
@@ -4814,7 +4815,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C109" t="inlineStr">
@@ -4853,7 +4854,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C110" t="inlineStr">
@@ -4908,7 +4909,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4943,7 +4944,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4978,7 +4979,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C113" t="inlineStr">
@@ -5017,7 +5018,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C114" t="inlineStr">
@@ -5056,7 +5057,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C115" t="inlineStr">
@@ -5111,7 +5112,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -5146,7 +5147,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -5181,7 +5182,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C118" t="inlineStr">
@@ -5220,7 +5221,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C119" t="inlineStr">
@@ -5259,7 +5260,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C120" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR WAA W20-01b.xlsx
+++ b/Tests/Validation/Wheat/data/FAR WAA W20-01b.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,14 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +456,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVI.Value</t>
+          <t>NDVIModel.Script.NDVI</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -562,7 +561,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="3" t="n">
         <v>43997</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -597,7 +596,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -632,7 +631,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -667,7 +666,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C5" t="inlineStr">
@@ -706,7 +705,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C6" t="inlineStr">
@@ -745,7 +744,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C7" t="inlineStr">
@@ -800,7 +799,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="3" t="n">
         <v>43997</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -835,7 +834,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -870,7 +869,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -905,7 +904,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -944,7 +943,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -983,7 +982,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -1038,7 +1037,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="3" t="n">
         <v>43997</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1073,7 +1072,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1108,7 +1107,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1143,7 +1142,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -1182,7 +1181,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C18" t="inlineStr">
@@ -1221,7 +1220,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C19" t="inlineStr">
@@ -1276,7 +1275,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="3" t="n">
         <v>43997</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1311,7 +1310,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1346,7 +1345,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1381,7 +1380,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C23" t="inlineStr">
@@ -1420,7 +1419,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -1459,7 +1458,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -1514,7 +1513,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="3" t="n">
         <v>43997</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1549,7 +1548,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1584,7 +1583,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1619,7 +1618,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C29" t="inlineStr">
@@ -1658,7 +1657,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C30" t="inlineStr">
@@ -1697,7 +1696,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C31" t="inlineStr">
@@ -1752,7 +1751,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="3" t="n">
         <v>43997</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1787,7 +1786,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1822,7 +1821,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1857,7 +1856,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C35" t="inlineStr">
@@ -1896,7 +1895,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B36" s="4" t="n">
+      <c r="B36" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C36" t="inlineStr">
@@ -1935,7 +1934,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C37" t="inlineStr">
@@ -1990,7 +1989,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="3" t="n">
         <v>43997</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -2025,7 +2024,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -2060,7 +2059,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2095,7 +2094,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B41" s="4" t="n">
+      <c r="B41" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C41" t="inlineStr">
@@ -2134,7 +2133,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C42" t="inlineStr">
@@ -2173,7 +2172,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C43" t="inlineStr">
@@ -2228,7 +2227,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="3" t="n">
         <v>44042</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2263,7 +2262,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B45" s="4" t="n">
+      <c r="B45" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2298,7 +2297,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B46" s="4" t="n">
+      <c r="B46" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2333,7 +2332,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B47" s="4" t="n">
+      <c r="B47" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C47" t="inlineStr">
@@ -2372,7 +2371,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B48" s="4" t="n">
+      <c r="B48" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -2411,7 +2410,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -2466,7 +2465,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" s="3" t="n">
         <v>44020</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2501,7 +2500,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B51" s="4" t="n">
+      <c r="B51" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2536,7 +2535,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2571,7 +2570,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C53" t="inlineStr">
@@ -2610,7 +2609,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B54" s="4" t="n">
+      <c r="B54" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C54" t="inlineStr">
@@ -2649,7 +2648,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B55" s="4" t="n">
+      <c r="B55" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C55" t="inlineStr">
@@ -2704,7 +2703,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B56" s="4" t="n">
+      <c r="B56" s="3" t="n">
         <v>44042</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2739,7 +2738,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B57" s="4" t="n">
+      <c r="B57" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2774,7 +2773,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B58" s="4" t="n">
+      <c r="B58" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2809,7 +2808,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C59" t="inlineStr">
@@ -2848,7 +2847,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B60" s="4" t="n">
+      <c r="B60" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C60" t="inlineStr">
@@ -2887,7 +2886,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B61" s="4" t="n">
+      <c r="B61" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C61" t="inlineStr">
@@ -2942,7 +2941,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B62" s="4" t="n">
+      <c r="B62" s="3" t="n">
         <v>44020</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2977,7 +2976,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B63" s="4" t="n">
+      <c r="B63" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -3012,7 +3011,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B64" s="4" t="n">
+      <c r="B64" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -3047,7 +3046,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B65" s="4" t="n">
+      <c r="B65" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C65" t="inlineStr">
@@ -3086,7 +3085,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B66" s="4" t="n">
+      <c r="B66" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C66" t="inlineStr">
@@ -3125,7 +3124,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B67" s="4" t="n">
+      <c r="B67" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C67" t="inlineStr">
@@ -3180,7 +3179,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B68" s="4" t="n">
+      <c r="B68" s="3" t="n">
         <v>44042</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3215,7 +3214,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B69" s="4" t="n">
+      <c r="B69" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3250,7 +3249,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B70" s="4" t="n">
+      <c r="B70" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3285,7 +3284,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B71" s="4" t="n">
+      <c r="B71" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C71" t="inlineStr">
@@ -3324,7 +3323,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B72" s="4" t="n">
+      <c r="B72" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C72" t="inlineStr">
@@ -3363,7 +3362,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B73" s="4" t="n">
+      <c r="B73" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C73" t="inlineStr">
@@ -3418,7 +3417,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B74" s="4" t="n">
+      <c r="B74" s="3" t="n">
         <v>44042</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3453,7 +3452,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B75" s="4" t="n">
+      <c r="B75" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3488,7 +3487,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B76" s="4" t="n">
+      <c r="B76" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3523,7 +3522,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B77" s="4" t="n">
+      <c r="B77" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C77" t="inlineStr">
@@ -3562,7 +3561,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B78" s="4" t="n">
+      <c r="B78" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C78" t="inlineStr">
@@ -3601,7 +3600,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B79" s="4" t="n">
+      <c r="B79" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C79" t="inlineStr">
@@ -3656,7 +3655,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B80" s="4" t="n">
+      <c r="B80" s="3" t="n">
         <v>44020</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3691,7 +3690,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B81" s="4" t="n">
+      <c r="B81" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3726,7 +3725,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B82" s="4" t="n">
+      <c r="B82" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3761,7 +3760,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B83" s="4" t="n">
+      <c r="B83" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C83" t="inlineStr">
@@ -3800,7 +3799,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B84" s="4" t="n">
+      <c r="B84" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C84" t="inlineStr">
@@ -3839,7 +3838,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B85" s="4" t="n">
+      <c r="B85" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C85" t="inlineStr">
@@ -3894,7 +3893,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B86" s="4" t="n">
+      <c r="B86" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3929,7 +3928,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B87" s="4" t="n">
+      <c r="B87" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3964,7 +3963,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B88" s="4" t="n">
+      <c r="B88" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C88" t="inlineStr">
@@ -4003,7 +4002,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B89" s="4" t="n">
+      <c r="B89" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C89" t="inlineStr">
@@ -4042,7 +4041,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B90" s="4" t="n">
+      <c r="B90" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C90" t="inlineStr">
@@ -4097,7 +4096,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B91" s="4" t="n">
+      <c r="B91" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -4132,7 +4131,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B92" s="4" t="n">
+      <c r="B92" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -4167,7 +4166,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B93" s="4" t="n">
+      <c r="B93" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C93" t="inlineStr">
@@ -4206,7 +4205,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B94" s="4" t="n">
+      <c r="B94" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C94" t="inlineStr">
@@ -4245,7 +4244,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B95" s="4" t="n">
+      <c r="B95" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C95" t="inlineStr">
@@ -4300,7 +4299,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B96" s="4" t="n">
+      <c r="B96" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4335,7 +4334,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B97" s="4" t="n">
+      <c r="B97" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4370,7 +4369,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B98" s="4" t="n">
+      <c r="B98" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C98" t="inlineStr">
@@ -4409,7 +4408,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B99" s="4" t="n">
+      <c r="B99" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C99" t="inlineStr">
@@ -4448,7 +4447,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B100" s="4" t="n">
+      <c r="B100" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C100" t="inlineStr">
@@ -4503,7 +4502,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvCutlass</t>
         </is>
       </c>
-      <c r="B101" s="4" t="n">
+      <c r="B101" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4538,7 +4537,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvCutlass</t>
         </is>
       </c>
-      <c r="B102" s="4" t="n">
+      <c r="B102" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4573,7 +4572,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvCutlass</t>
         </is>
       </c>
-      <c r="B103" s="4" t="n">
+      <c r="B103" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C103" t="inlineStr">
@@ -4612,7 +4611,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvCutlass</t>
         </is>
       </c>
-      <c r="B104" s="4" t="n">
+      <c r="B104" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C104" t="inlineStr">
@@ -4651,7 +4650,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvCutlass</t>
         </is>
       </c>
-      <c r="B105" s="4" t="n">
+      <c r="B105" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C105" t="inlineStr">
@@ -4706,7 +4705,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B106" s="4" t="n">
+      <c r="B106" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4741,7 +4740,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B107" s="4" t="n">
+      <c r="B107" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4776,7 +4775,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B108" s="4" t="n">
+      <c r="B108" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C108" t="inlineStr">
@@ -4815,7 +4814,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B109" s="4" t="n">
+      <c r="B109" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C109" t="inlineStr">
@@ -4854,7 +4853,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B110" s="4" t="n">
+      <c r="B110" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C110" t="inlineStr">
@@ -4909,7 +4908,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B111" s="4" t="n">
+      <c r="B111" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4944,7 +4943,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B112" s="4" t="n">
+      <c r="B112" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4979,7 +4978,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B113" s="4" t="n">
+      <c r="B113" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C113" t="inlineStr">
@@ -5018,7 +5017,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B114" s="4" t="n">
+      <c r="B114" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C114" t="inlineStr">
@@ -5057,7 +5056,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B115" s="4" t="n">
+      <c r="B115" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C115" t="inlineStr">
@@ -5112,7 +5111,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B116" s="4" t="n">
+      <c r="B116" s="3" t="n">
         <v>44130</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -5147,7 +5146,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B117" s="4" t="n">
+      <c r="B117" s="3" t="n">
         <v>44132</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -5182,7 +5181,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B118" s="4" t="n">
+      <c r="B118" s="3" t="n">
         <v>44161</v>
       </c>
       <c r="C118" t="inlineStr">
@@ -5221,7 +5220,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B119" s="4" t="n">
+      <c r="B119" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C119" t="inlineStr">
@@ -5260,7 +5259,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B120" s="4" t="n">
+      <c r="B120" s="3" t="n">
         <v>44182</v>
       </c>
       <c r="C120" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR WAA W20-01b.xlsx
+++ b/Tests/Validation/Wheat/data/FAR WAA W20-01b.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +457,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>Spectral.NDVI</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -561,7 +562,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>43997</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -596,7 +597,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -631,7 +632,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -666,7 +667,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C5" t="inlineStr">
@@ -705,7 +706,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C6" t="inlineStr">
@@ -744,7 +745,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvIllabo</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C7" t="inlineStr">
@@ -799,7 +800,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>43997</v>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -834,7 +835,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -869,7 +870,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -904,7 +905,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -943,7 +944,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -982,7 +983,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -1037,7 +1038,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>43997</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1072,7 +1073,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1107,7 +1108,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1142,7 +1143,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -1181,7 +1182,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C18" t="inlineStr">
@@ -1220,7 +1221,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C19" t="inlineStr">
@@ -1275,7 +1276,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>43997</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1310,7 +1311,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1345,7 +1346,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1380,7 +1381,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C23" t="inlineStr">
@@ -1419,7 +1420,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -1458,7 +1459,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvCutlass</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -1513,7 +1514,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>43997</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1548,7 +1549,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1583,7 +1584,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1618,7 +1619,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C29" t="inlineStr">
@@ -1657,7 +1658,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C30" t="inlineStr">
@@ -1696,7 +1697,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C31" t="inlineStr">
@@ -1751,7 +1752,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>43997</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1786,7 +1787,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1821,7 +1822,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1856,7 +1857,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C35" t="inlineStr">
@@ -1895,7 +1896,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C36" t="inlineStr">
@@ -1934,7 +1935,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C37" t="inlineStr">
@@ -1989,7 +1990,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>43997</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -2024,7 +2025,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -2059,7 +2060,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2094,7 +2095,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C41" t="inlineStr">
@@ -2133,7 +2134,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C42" t="inlineStr">
@@ -2172,7 +2173,7 @@
           <t>FAR WAA W20-01bMgmtStandardCvScepter</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C43" t="inlineStr">
@@ -2227,7 +2228,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>44042</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2262,7 +2263,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2297,7 +2298,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2332,7 +2333,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C47" t="inlineStr">
@@ -2371,7 +2372,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -2410,7 +2411,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvIllabo</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -2465,7 +2466,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>44020</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2500,7 +2501,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2535,7 +2536,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2570,7 +2571,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C53" t="inlineStr">
@@ -2609,7 +2610,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C54" t="inlineStr">
@@ -2648,7 +2649,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C55" t="inlineStr">
@@ -2703,7 +2704,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>44042</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2738,7 +2739,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -2773,7 +2774,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2808,7 +2809,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C59" t="inlineStr">
@@ -2847,7 +2848,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C60" t="inlineStr">
@@ -2886,7 +2887,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C61" t="inlineStr">
@@ -2941,7 +2942,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>44020</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2976,7 +2977,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -3011,7 +3012,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C64" t="inlineStr"/>
@@ -3046,7 +3047,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C65" t="inlineStr">
@@ -3085,7 +3086,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C66" t="inlineStr">
@@ -3124,7 +3125,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvCutlass</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C67" t="inlineStr">
@@ -3179,7 +3180,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>44042</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -3214,7 +3215,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -3249,7 +3250,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3284,7 +3285,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C71" t="inlineStr">
@@ -3323,7 +3324,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C72" t="inlineStr">
@@ -3362,7 +3363,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C73" t="inlineStr">
@@ -3417,7 +3418,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>44042</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3452,7 +3453,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3487,7 +3488,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3522,7 +3523,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C77" t="inlineStr">
@@ -3561,7 +3562,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C78" t="inlineStr">
@@ -3600,7 +3601,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C79" t="inlineStr">
@@ -3655,7 +3656,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>44020</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3690,7 +3691,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3725,7 +3726,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3760,7 +3761,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C83" t="inlineStr">
@@ -3799,7 +3800,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C84" t="inlineStr">
@@ -3838,7 +3839,7 @@
           <t>FAR WAA W20-01bMgmtGrazedCvScepter</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C85" t="inlineStr">
@@ -3893,7 +3894,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3928,7 +3929,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3963,7 +3964,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C88" t="inlineStr">
@@ -4002,7 +4003,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C89" t="inlineStr">
@@ -4041,7 +4042,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvIllabo</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C90" t="inlineStr">
@@ -4096,7 +4097,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -4131,7 +4132,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -4166,7 +4167,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C93" t="inlineStr">
@@ -4205,7 +4206,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C94" t="inlineStr">
@@ -4244,7 +4245,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C95" t="inlineStr">
@@ -4299,7 +4300,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -4334,7 +4335,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -4369,7 +4370,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C98" t="inlineStr">
@@ -4408,7 +4409,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C99" t="inlineStr">
@@ -4447,7 +4448,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvLRPB TBC</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C100" t="inlineStr">
@@ -4502,7 +4503,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvCutlass</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4537,7 +4538,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvCutlass</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4572,7 +4573,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvCutlass</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C103" t="inlineStr">
@@ -4611,7 +4612,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvCutlass</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C104" t="inlineStr">
@@ -4650,7 +4651,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvCutlass</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C105" t="inlineStr">
@@ -4705,7 +4706,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -4740,7 +4741,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4775,7 +4776,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C108" t="inlineStr">
@@ -4814,7 +4815,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C109" t="inlineStr">
@@ -4853,7 +4854,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C110" t="inlineStr">
@@ -4908,7 +4909,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4943,7 +4944,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4978,7 +4979,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C113" t="inlineStr">
@@ -5017,7 +5018,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C114" t="inlineStr">
@@ -5056,7 +5057,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C115" t="inlineStr">
@@ -5111,7 +5112,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>44130</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -5146,7 +5147,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>44132</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -5181,7 +5182,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>44161</v>
       </c>
       <c r="C118" t="inlineStr">
@@ -5220,7 +5221,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C119" t="inlineStr">
@@ -5259,7 +5260,7 @@
           <t>FAR WAA W20-01bMgmtHigh InputCvScepter</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>44182</v>
       </c>
       <c r="C120" t="inlineStr">
